--- a/development/L1Menu_Collisions2022_v1_0_1/PrescaleTable/L1Menu_Collisions2022_v1_0_1.xlsx
+++ b/development/L1Menu_Collisions2022_v1_0_1/PrescaleTable/L1Menu_Collisions2022_v1_0_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_0_1/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4B3EE1-35B9-6742-870D-DD34F73A6264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A71268-C6CF-A94C-B6A9-EBE369DD3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="-17200" windowWidth="29500" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="-17200" windowWidth="29500" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Index</t>
   </si>
@@ -1205,6 +1205,15 @@
   </si>
   <si>
     <t>L1_Mu18er2p1_Tau26er2p1_Jet70</t>
+  </si>
+  <si>
+    <t>L1_TripleMu_3SQ_2p5SQ_0OQ_Mass_Max12</t>
+  </si>
+  <si>
+    <t>L1_DoubleLLPJet40</t>
+  </si>
+  <si>
+    <t>L1_HTT240_SingleLLPJet70</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1262,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1342,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,6 +1385,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2548,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B8E07-BE26-384A-A4B5-1B0A96E53592}">
-  <dimension ref="A1:IV385"/>
+  <dimension ref="A1:IV388"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A220" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5400,34 +5433,34 @@
       <c r="A82" s="5">
         <v>83</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="5">
-        <v>0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0</v>
-      </c>
-      <c r="E82" s="5">
-        <v>0</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0</v>
-      </c>
-      <c r="I82" s="5">
-        <v>0</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0</v>
-      </c>
-      <c r="K82" s="5">
+      <c r="B82" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14">
         <v>0</v>
       </c>
     </row>
@@ -5436,34 +5469,34 @@
         <v>84</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5">
         <v>0</v>
       </c>
       <c r="D83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5471,7 +5504,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="5">
         <v>0</v>
@@ -5506,7 +5539,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="5">
         <v>0</v>
@@ -5541,7 +5574,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" s="5">
         <v>0</v>
@@ -5576,34 +5609,34 @@
         <v>88</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5">
         <v>0</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5611,7 +5644,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="5">
         <v>0</v>
@@ -5646,7 +5679,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5">
         <v>0</v>
@@ -5681,7 +5714,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="C90" s="5">
         <v>0</v>
@@ -5716,7 +5749,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C91" s="5">
         <v>0</v>
@@ -5748,10 +5781,10 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
       <c r="C92" s="5">
         <v>0</v>
@@ -5783,11 +5816,11 @@
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
+        <v>96</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="C93" s="5">
         <v>0</v>
       </c>
@@ -5795,39 +5828,39 @@
         <v>0</v>
       </c>
       <c r="E93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
+        <v>97</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C94" s="5">
         <v>0</v>
       </c>
       <c r="D94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="5">
         <v>1</v>
@@ -5853,10 +5886,10 @@
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
+        <v>98</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -5888,80 +5921,80 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
+        <v>99</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="C96" s="5">
         <v>0</v>
       </c>
       <c r="D96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
+        <v>100</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="C97" s="5">
         <v>0</v>
       </c>
       <c r="D97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
+        <v>101</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="C98" s="5">
         <v>0</v>
@@ -5993,80 +6026,80 @@
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C99" s="5">
         <v>0</v>
       </c>
       <c r="D99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="5">
         <v>0</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" s="5">
         <v>0</v>
@@ -6098,10 +6131,10 @@
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" s="5">
         <v>0</v>
@@ -6133,115 +6166,115 @@
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C103" s="5">
         <v>0</v>
       </c>
       <c r="D103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
+        <v>109</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5">
+        <v>0</v>
+      </c>
+      <c r="H104" s="5">
+        <v>0</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
         <v>110</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="5">
-        <v>0</v>
-      </c>
-      <c r="D104" s="5">
-        <v>1</v>
-      </c>
-      <c r="E104" s="5">
-        <v>1</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5">
-        <v>1</v>
-      </c>
-      <c r="H104" s="5">
-        <v>1</v>
-      </c>
-      <c r="I104" s="5">
-        <v>1</v>
-      </c>
-      <c r="J104" s="5">
-        <v>1</v>
-      </c>
-      <c r="K104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1</v>
+      </c>
+      <c r="J105" s="5">
+        <v>1</v>
+      </c>
+      <c r="K105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
         <v>112</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B106" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C105" s="5">
-        <v>0</v>
-      </c>
-      <c r="D105" s="5">
-        <v>1</v>
-      </c>
-      <c r="E105" s="5">
-        <v>1</v>
-      </c>
-      <c r="F105" s="5">
-        <v>1</v>
-      </c>
-      <c r="G105" s="5">
-        <v>1</v>
-      </c>
-      <c r="H105" s="5">
-        <v>1</v>
-      </c>
-      <c r="I105" s="5">
-        <v>1</v>
-      </c>
-      <c r="J105" s="5">
-        <v>1</v>
-      </c>
-      <c r="K105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
-        <v>113</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="C106" s="5">
         <v>0</v>
@@ -6273,80 +6306,80 @@
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="C107" s="5">
         <v>0</v>
       </c>
       <c r="D107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="E107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="F107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="G107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="H107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="I107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="J107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
       <c r="K107" s="5">
-        <v>11000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="5">
         <v>0</v>
       </c>
       <c r="D108" s="5">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E108" s="5">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="F108" s="5">
-        <v>320</v>
+        <v>11000</v>
       </c>
       <c r="G108" s="5">
-        <v>280</v>
+        <v>11000</v>
       </c>
       <c r="H108" s="5">
-        <v>240</v>
+        <v>11000</v>
       </c>
       <c r="I108" s="5">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="J108" s="5">
-        <v>160</v>
+        <v>11000</v>
       </c>
       <c r="K108" s="5">
-        <v>100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="5">
         <v>0</v>
@@ -6355,138 +6388,138 @@
         <v>400</v>
       </c>
       <c r="E109" s="5">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="F109" s="5">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="G109" s="5">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="H109" s="5">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="I109" s="5">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="J109" s="5">
+        <v>160</v>
+      </c>
+      <c r="K109" s="5">
         <v>100</v>
-      </c>
-      <c r="K109" s="5">
-        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="5">
         <v>0</v>
       </c>
       <c r="D110" s="5">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="E110" s="5">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="F110" s="5">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="G110" s="5">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="H110" s="5">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I110" s="5">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J110" s="5">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="K110" s="5">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="5">
         <v>0</v>
       </c>
       <c r="D111" s="5">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E111" s="5">
+        <v>52</v>
+      </c>
+      <c r="F111" s="5">
+        <v>42</v>
+      </c>
+      <c r="G111" s="5">
+        <v>36</v>
+      </c>
+      <c r="H111" s="5">
+        <v>32</v>
+      </c>
+      <c r="I111" s="5">
+        <v>26</v>
+      </c>
+      <c r="J111" s="5">
+        <v>21</v>
+      </c>
+      <c r="K111" s="5">
         <v>13</v>
-      </c>
-      <c r="F111" s="5">
-        <v>10</v>
-      </c>
-      <c r="G111" s="5">
-        <v>9</v>
-      </c>
-      <c r="H111" s="5">
-        <v>8</v>
-      </c>
-      <c r="I111" s="5">
-        <v>6</v>
-      </c>
-      <c r="J111" s="5">
-        <v>5</v>
-      </c>
-      <c r="K111" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="8">
-        <v>0</v>
-      </c>
-      <c r="D112" s="9">
+        <v>116</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0</v>
+      </c>
+      <c r="D112" s="5">
+        <v>40</v>
+      </c>
+      <c r="E112" s="5">
+        <v>13</v>
+      </c>
+      <c r="F112" s="5">
+        <v>10</v>
+      </c>
+      <c r="G112" s="5">
+        <v>9</v>
+      </c>
+      <c r="H112" s="5">
         <v>8</v>
       </c>
-      <c r="E112" s="9">
+      <c r="I112" s="5">
+        <v>6</v>
+      </c>
+      <c r="J112" s="5">
+        <v>5</v>
+      </c>
+      <c r="K112" s="5">
         <v>3</v>
-      </c>
-      <c r="F112" s="9">
-        <v>3</v>
-      </c>
-      <c r="G112" s="9">
-        <v>2</v>
-      </c>
-      <c r="H112" s="9">
-        <v>2</v>
-      </c>
-      <c r="I112" s="9">
-        <v>2</v>
-      </c>
-      <c r="J112" s="9">
-        <v>1</v>
-      </c>
-      <c r="K112" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="8">
         <v>0</v>
@@ -6498,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="F113" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G113" s="9">
         <v>2</v>
@@ -6507,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" s="9">
         <v>1</v>
@@ -6518,28 +6551,28 @@
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="8">
         <v>0</v>
       </c>
       <c r="D114" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E114" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F114" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" s="9">
         <v>1</v>
@@ -6553,45 +6586,45 @@
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="5">
-        <v>0</v>
-      </c>
-      <c r="D115" s="5">
-        <v>1</v>
-      </c>
-      <c r="E115" s="5">
-        <v>1</v>
-      </c>
-      <c r="F115" s="5">
-        <v>1</v>
-      </c>
-      <c r="G115" s="5">
-        <v>1</v>
-      </c>
-      <c r="H115" s="5">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5">
-        <v>1</v>
-      </c>
-      <c r="J115" s="5">
-        <v>1</v>
-      </c>
-      <c r="K115" s="5">
+        <v>119</v>
+      </c>
+      <c r="C115" s="8">
+        <v>0</v>
+      </c>
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="E115" s="9">
+        <v>1</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1</v>
+      </c>
+      <c r="J115" s="9">
+        <v>1</v>
+      </c>
+      <c r="K115" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="5">
         <v>0</v>
@@ -6623,10 +6656,10 @@
     </row>
     <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C117" s="5">
         <v>0</v>
@@ -6658,80 +6691,80 @@
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" s="5">
         <v>0</v>
       </c>
       <c r="D118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" s="5">
         <v>0</v>
       </c>
       <c r="D119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="5">
         <v>0</v>
@@ -6763,10 +6796,10 @@
     </row>
     <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C121" s="5">
         <v>0</v>
@@ -6798,10 +6831,10 @@
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122" s="5">
         <v>0</v>
@@ -6833,80 +6866,80 @@
     </row>
     <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C123" s="5">
         <v>0</v>
       </c>
       <c r="D123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="5">
         <v>0</v>
       </c>
       <c r="D124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C125" s="5">
         <v>0</v>
@@ -6938,10 +6971,10 @@
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126" s="5">
         <v>0</v>
@@ -6973,10 +7006,10 @@
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="5">
         <v>0</v>
@@ -7008,10 +7041,10 @@
     </row>
     <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" s="5">
         <v>0</v>
@@ -7043,255 +7076,255 @@
     </row>
     <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" s="8">
-        <v>0</v>
-      </c>
-      <c r="D129" s="9">
-        <v>1</v>
-      </c>
-      <c r="E129" s="9">
-        <v>1</v>
-      </c>
-      <c r="F129" s="9">
-        <v>1</v>
-      </c>
-      <c r="G129" s="9">
-        <v>1</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1</v>
-      </c>
-      <c r="I129" s="9">
-        <v>1</v>
-      </c>
-      <c r="J129" s="9">
-        <v>1</v>
-      </c>
-      <c r="K129" s="9">
+        <v>134</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F129" s="5">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5">
+        <v>1</v>
+      </c>
+      <c r="H129" s="5">
+        <v>1</v>
+      </c>
+      <c r="I129" s="5">
+        <v>1</v>
+      </c>
+      <c r="J129" s="5">
+        <v>1</v>
+      </c>
+      <c r="K129" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" s="8">
         <v>0</v>
       </c>
       <c r="D130" s="9">
-        <v>220000</v>
+        <v>1</v>
       </c>
       <c r="E130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="F130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="G130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="H130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="I130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="J130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
       <c r="K130" s="9">
-        <v>44000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" s="8">
         <v>0</v>
       </c>
       <c r="D131" s="9">
-        <v>38000</v>
+        <v>220000</v>
       </c>
       <c r="E131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="F131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="G131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="H131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="I131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="J131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
       <c r="K131" s="9">
-        <v>7600</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="5">
-        <v>0</v>
-      </c>
-      <c r="D132" s="5">
-        <v>2700</v>
-      </c>
-      <c r="E132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="G132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="H132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="I132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="J132" s="5">
-        <v>1350</v>
-      </c>
-      <c r="K132" s="5">
-        <v>1350</v>
+        <v>137</v>
+      </c>
+      <c r="C132" s="8">
+        <v>0</v>
+      </c>
+      <c r="D132" s="9">
+        <v>38000</v>
+      </c>
+      <c r="E132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="F132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="G132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="H132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="I132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="J132" s="9">
+        <v>7600</v>
+      </c>
+      <c r="K132" s="9">
+        <v>7600</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133" s="5">
         <v>0</v>
       </c>
       <c r="D133" s="5">
-        <v>780</v>
+        <v>2700</v>
       </c>
       <c r="E133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="F133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="G133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="H133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="I133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="J133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
       <c r="K133" s="5">
-        <v>780</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" s="5">
         <v>0</v>
       </c>
       <c r="D134" s="5">
-        <v>49</v>
+        <v>780</v>
       </c>
       <c r="E134" s="5">
-        <v>45</v>
+        <v>780</v>
       </c>
       <c r="F134" s="5">
-        <v>35</v>
+        <v>780</v>
       </c>
       <c r="G134" s="5">
-        <v>31</v>
+        <v>780</v>
       </c>
       <c r="H134" s="5">
-        <v>27</v>
+        <v>780</v>
       </c>
       <c r="I134" s="5">
-        <v>22</v>
+        <v>780</v>
       </c>
       <c r="J134" s="5">
-        <v>18</v>
+        <v>780</v>
       </c>
       <c r="K134" s="5">
-        <v>11</v>
+        <v>780</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" s="5">
         <v>0</v>
       </c>
       <c r="D135" s="5">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E135" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F135" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G135" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H135" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I135" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J135" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K135" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C136" s="5">
         <v>0</v>
@@ -7323,10 +7356,10 @@
     </row>
     <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C137" s="5">
         <v>0</v>
@@ -7358,10 +7391,10 @@
     </row>
     <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" s="5">
         <v>0</v>
@@ -7393,10 +7426,10 @@
     </row>
     <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" s="5">
         <v>0</v>
@@ -7405,33 +7438,33 @@
         <v>0</v>
       </c>
       <c r="E139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" s="5">
         <v>0</v>
@@ -7463,45 +7496,45 @@
     </row>
     <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C141" s="8">
-        <v>0</v>
-      </c>
-      <c r="D141" s="9">
-        <v>1</v>
-      </c>
-      <c r="E141" s="9">
-        <v>1</v>
-      </c>
-      <c r="F141" s="9">
-        <v>1</v>
-      </c>
-      <c r="G141" s="9">
-        <v>1</v>
-      </c>
-      <c r="H141" s="9">
-        <v>1</v>
-      </c>
-      <c r="I141" s="9">
-        <v>1</v>
-      </c>
-      <c r="J141" s="9">
-        <v>1</v>
-      </c>
-      <c r="K141" s="9">
+        <v>146</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141" s="5">
+        <v>0</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
+      <c r="F141" s="5">
+        <v>1</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5">
+        <v>1</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1</v>
+      </c>
+      <c r="J141" s="5">
+        <v>1</v>
+      </c>
+      <c r="K141" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" s="8">
         <v>0</v>
@@ -7533,150 +7566,150 @@
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C143" s="5">
-        <v>0</v>
-      </c>
-      <c r="D143" s="5">
-        <v>1</v>
-      </c>
-      <c r="E143" s="5">
-        <v>1</v>
-      </c>
-      <c r="F143" s="5">
-        <v>1</v>
-      </c>
-      <c r="G143" s="5">
-        <v>1</v>
-      </c>
-      <c r="H143" s="5">
-        <v>1</v>
-      </c>
-      <c r="I143" s="5">
-        <v>1</v>
-      </c>
-      <c r="J143" s="5">
-        <v>1</v>
-      </c>
-      <c r="K143" s="5">
+        <v>148</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="9">
+        <v>1</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="H143" s="9">
+        <v>1</v>
+      </c>
+      <c r="I143" s="9">
+        <v>1</v>
+      </c>
+      <c r="J143" s="9">
+        <v>1</v>
+      </c>
+      <c r="K143" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="5">
         <v>0</v>
       </c>
       <c r="D144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C145" s="5">
         <v>0</v>
       </c>
       <c r="D145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" s="5">
         <v>0</v>
       </c>
       <c r="D146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147" s="5">
         <v>0</v>
@@ -7708,10 +7741,10 @@
     </row>
     <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" s="5">
         <v>0</v>
@@ -7743,10 +7776,10 @@
     </row>
     <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C149" s="5">
         <v>0</v>
@@ -7755,33 +7788,33 @@
         <v>0</v>
       </c>
       <c r="E149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" s="5">
         <v>0</v>
@@ -7813,10 +7846,10 @@
     </row>
     <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C151" s="5">
         <v>0</v>
@@ -7825,33 +7858,33 @@
         <v>0</v>
       </c>
       <c r="E151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C152" s="5">
         <v>0</v>
@@ -7860,33 +7893,33 @@
         <v>0</v>
       </c>
       <c r="E152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C153" s="5">
         <v>0</v>
@@ -7895,33 +7928,33 @@
         <v>0</v>
       </c>
       <c r="E153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C154" s="5">
         <v>0</v>
@@ -7953,10 +7986,10 @@
     </row>
     <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" s="5">
         <v>0</v>
@@ -7988,10 +8021,10 @@
     </row>
     <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C156" s="5">
         <v>0</v>
@@ -8023,10 +8056,10 @@
     </row>
     <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" s="5">
         <v>0</v>
@@ -8058,10 +8091,10 @@
     </row>
     <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" s="5">
         <v>0</v>
@@ -8093,10 +8126,10 @@
     </row>
     <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" s="5">
         <v>0</v>
@@ -8128,10 +8161,10 @@
     </row>
     <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" s="5">
         <v>0</v>
@@ -8140,39 +8173,39 @@
         <v>0</v>
       </c>
       <c r="E160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" s="5">
         <v>0</v>
       </c>
       <c r="D161" s="5">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="E161" s="5">
         <v>1</v>
@@ -8198,16 +8231,16 @@
     </row>
     <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" s="5">
         <v>0</v>
       </c>
       <c r="D162" s="5">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -8233,10 +8266,10 @@
     </row>
     <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C163" s="5">
         <v>0</v>
@@ -8268,16 +8301,16 @@
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C164" s="5">
         <v>0</v>
       </c>
       <c r="D164" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -8303,10 +8336,10 @@
     </row>
     <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C165" s="5">
         <v>0</v>
@@ -8338,10 +8371,10 @@
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C166" s="5">
         <v>0</v>
@@ -8373,10 +8406,10 @@
     </row>
     <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C167" s="5">
         <v>0</v>
@@ -8408,45 +8441,45 @@
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C168" s="5">
         <v>0</v>
       </c>
       <c r="D168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
-        <v>200</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>370</v>
+        <v>197</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C169" s="5">
         <v>0</v>
@@ -8478,10 +8511,10 @@
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C170" s="5">
         <v>0</v>
@@ -8513,10 +8546,10 @@
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C171" s="5">
         <v>0</v>
@@ -8548,10 +8581,10 @@
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" s="5">
         <v>0</v>
@@ -8583,10 +8616,10 @@
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C173" s="5">
         <v>0</v>
@@ -8618,10 +8651,10 @@
     </row>
     <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C174" s="5">
         <v>0</v>
@@ -8653,10 +8686,10 @@
     </row>
     <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C175" s="5">
         <v>0</v>
@@ -8688,10 +8721,10 @@
     </row>
     <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C176" s="5">
         <v>0</v>
@@ -8723,10 +8756,10 @@
     </row>
     <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C177" s="5">
         <v>0</v>
@@ -8758,10 +8791,10 @@
     </row>
     <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C178" s="5">
         <v>0</v>
@@ -8793,10 +8826,10 @@
     </row>
     <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C179" s="5">
         <v>0</v>
@@ -8828,10 +8861,10 @@
     </row>
     <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C180" s="5">
         <v>0</v>
@@ -8863,10 +8896,10 @@
     </row>
     <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C181" s="5">
         <v>0</v>
@@ -8898,10 +8931,10 @@
     </row>
     <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C182" s="5">
         <v>0</v>
@@ -8933,10 +8966,10 @@
     </row>
     <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C183" s="5">
         <v>0</v>
@@ -8968,80 +9001,80 @@
     </row>
     <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
+        <v>214</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0</v>
+      </c>
+      <c r="G184" s="5">
+        <v>0</v>
+      </c>
+      <c r="H184" s="5">
+        <v>0</v>
+      </c>
+      <c r="I184" s="5">
+        <v>0</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
         <v>215</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B185" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C184" s="5">
-        <v>0</v>
-      </c>
-      <c r="D184" s="5">
-        <v>0</v>
-      </c>
-      <c r="E184" s="5">
-        <v>0</v>
-      </c>
-      <c r="F184" s="5">
-        <v>0</v>
-      </c>
-      <c r="G184" s="5">
-        <v>0</v>
-      </c>
-      <c r="H184" s="5">
-        <v>0</v>
-      </c>
-      <c r="I184" s="5">
-        <v>0</v>
-      </c>
-      <c r="J184" s="5">
-        <v>0</v>
-      </c>
-      <c r="K184" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10">
+      <c r="C185" s="5">
+        <v>0</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10">
         <v>216</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B186" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C185" s="5">
-        <v>0</v>
-      </c>
-      <c r="D185" s="5">
-        <v>0</v>
-      </c>
-      <c r="E185" s="5">
-        <v>0</v>
-      </c>
-      <c r="F185" s="5">
-        <v>0</v>
-      </c>
-      <c r="G185" s="5">
-        <v>0</v>
-      </c>
-      <c r="H185" s="5">
-        <v>0</v>
-      </c>
-      <c r="I185" s="5">
-        <v>0</v>
-      </c>
-      <c r="J185" s="5">
-        <v>0</v>
-      </c>
-      <c r="K185" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
-        <v>217</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C186" s="5">
         <v>0</v>
@@ -9073,10 +9106,10 @@
     </row>
     <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" s="5">
         <v>0</v>
@@ -9085,39 +9118,39 @@
         <v>0</v>
       </c>
       <c r="E187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
-        <v>219</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C188" s="10">
-        <v>0</v>
-      </c>
-      <c r="D188" s="10">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
       </c>
       <c r="E188" s="5">
         <v>1</v>
@@ -9143,15 +9176,15 @@
     </row>
     <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
-        <v>220</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C189" s="5">
-        <v>0</v>
-      </c>
-      <c r="D189" s="5">
+        <v>219</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C189" s="10">
+        <v>0</v>
+      </c>
+      <c r="D189" s="10">
         <v>1</v>
       </c>
       <c r="E189" s="5">
@@ -9178,115 +9211,115 @@
     </row>
     <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
+        <v>220</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5">
+        <v>1</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+      <c r="G190" s="5">
+        <v>1</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1</v>
+      </c>
+      <c r="J190" s="5">
+        <v>1</v>
+      </c>
+      <c r="K190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
         <v>221</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B191" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C190" s="5">
-        <v>0</v>
-      </c>
-      <c r="D190" s="5">
-        <v>0</v>
-      </c>
-      <c r="E190" s="5">
-        <v>0</v>
-      </c>
-      <c r="F190" s="5">
-        <v>0</v>
-      </c>
-      <c r="G190" s="5">
-        <v>0</v>
-      </c>
-      <c r="H190" s="5">
-        <v>0</v>
-      </c>
-      <c r="I190" s="5">
-        <v>0</v>
-      </c>
-      <c r="J190" s="5">
-        <v>0</v>
-      </c>
-      <c r="K190" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="10">
+      <c r="C191" s="5">
+        <v>0</v>
+      </c>
+      <c r="D191" s="5">
+        <v>0</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0</v>
+      </c>
+      <c r="F191" s="5">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5">
+        <v>0</v>
+      </c>
+      <c r="H191" s="5">
+        <v>0</v>
+      </c>
+      <c r="I191" s="5">
+        <v>0</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+      <c r="K191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10">
         <v>222</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B192" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C191" s="5">
-        <v>0</v>
-      </c>
-      <c r="D191" s="5">
-        <v>0</v>
-      </c>
-      <c r="E191" s="5">
-        <v>0</v>
-      </c>
-      <c r="F191" s="5">
-        <v>0</v>
-      </c>
-      <c r="G191" s="5">
-        <v>0</v>
-      </c>
-      <c r="H191" s="5">
-        <v>0</v>
-      </c>
-      <c r="I191" s="5">
-        <v>0</v>
-      </c>
-      <c r="J191" s="5">
-        <v>0</v>
-      </c>
-      <c r="K191" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
-        <v>223</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C192" s="5">
         <v>0</v>
       </c>
       <c r="D192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C193" s="5">
         <v>0</v>
@@ -9318,50 +9351,50 @@
     </row>
     <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
-        <v>225</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C194" s="10">
-        <v>0</v>
-      </c>
-      <c r="D194" s="10">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1</v>
       </c>
       <c r="E194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
-        <v>226</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" s="5">
-        <v>0</v>
-      </c>
-      <c r="D195" s="5">
+        <v>225</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C195" s="10">
+        <v>0</v>
+      </c>
+      <c r="D195" s="10">
         <v>0</v>
       </c>
       <c r="E195" s="5">
@@ -9388,10 +9421,10 @@
     </row>
     <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C196" s="5">
         <v>0</v>
@@ -9423,10 +9456,10 @@
     </row>
     <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C197" s="5">
         <v>0</v>
@@ -9458,10 +9491,10 @@
     </row>
     <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C198" s="5">
         <v>0</v>
@@ -9493,45 +9526,45 @@
     </row>
     <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="C199" s="5">
         <v>0</v>
       </c>
       <c r="D199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C200" s="5">
         <v>0</v>
@@ -9563,45 +9596,45 @@
     </row>
     <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C201" s="5">
         <v>0</v>
       </c>
       <c r="D201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C202" s="5">
         <v>0</v>
@@ -9633,45 +9666,45 @@
     </row>
     <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203" s="5">
         <v>0</v>
       </c>
       <c r="D203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C204" s="5">
         <v>0</v>
@@ -9703,10 +9736,10 @@
     </row>
     <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C205" s="5">
         <v>0</v>
@@ -9738,45 +9771,45 @@
     </row>
     <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C206" s="5">
         <v>0</v>
       </c>
       <c r="D206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C207" s="5">
         <v>0</v>
@@ -9785,39 +9818,39 @@
         <v>0</v>
       </c>
       <c r="E207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" s="5">
         <v>0</v>
       </c>
       <c r="D208" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" s="5">
         <v>1</v>
@@ -9843,45 +9876,45 @@
     </row>
     <row r="209" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C209" s="5">
         <v>0</v>
       </c>
       <c r="D209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C210" s="5">
         <v>0</v>
@@ -9890,39 +9923,39 @@
         <v>0</v>
       </c>
       <c r="E210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C211" s="5">
         <v>0</v>
       </c>
       <c r="D211" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" s="5">
         <v>1</v>
@@ -9948,10 +9981,10 @@
     </row>
     <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C212" s="5">
         <v>0</v>
@@ -9983,45 +10016,45 @@
     </row>
     <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C213" s="5">
         <v>0</v>
       </c>
       <c r="D213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C214" s="5">
         <v>0</v>
@@ -10053,45 +10086,45 @@
     </row>
     <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C215" s="5">
         <v>0</v>
       </c>
       <c r="D215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C216" s="5">
         <v>0</v>
@@ -10123,10 +10156,10 @@
     </row>
     <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" s="5">
         <v>0</v>
@@ -10158,10 +10191,10 @@
     </row>
     <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="5">
         <v>0</v>
@@ -10193,10 +10226,10 @@
     </row>
     <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="5">
         <v>0</v>
@@ -10228,10 +10261,10 @@
     </row>
     <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C220" s="5">
         <v>0</v>
@@ -10263,45 +10296,45 @@
     </row>
     <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C221" s="7">
-        <v>0</v>
-      </c>
-      <c r="D221" s="7">
-        <v>0</v>
-      </c>
-      <c r="E221" s="7">
-        <v>0</v>
-      </c>
-      <c r="F221" s="7">
-        <v>0</v>
-      </c>
-      <c r="G221" s="7">
-        <v>0</v>
-      </c>
-      <c r="H221" s="7">
-        <v>0</v>
-      </c>
-      <c r="I221" s="7">
-        <v>0</v>
-      </c>
-      <c r="J221" s="7">
-        <v>0</v>
-      </c>
-      <c r="K221" s="7">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="C221" s="5">
+        <v>0</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5">
+        <v>1</v>
+      </c>
+      <c r="F221" s="5">
+        <v>1</v>
+      </c>
+      <c r="G221" s="5">
+        <v>1</v>
+      </c>
+      <c r="H221" s="5">
+        <v>1</v>
+      </c>
+      <c r="I221" s="5">
+        <v>1</v>
+      </c>
+      <c r="J221" s="5">
+        <v>1</v>
+      </c>
+      <c r="K221" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="C222" s="7">
         <v>0</v>
@@ -10333,45 +10366,45 @@
     </row>
     <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C223" s="5">
-        <v>0</v>
-      </c>
-      <c r="D223" s="5">
-        <v>1</v>
-      </c>
-      <c r="E223" s="5">
-        <v>1</v>
-      </c>
-      <c r="F223" s="5">
-        <v>1</v>
-      </c>
-      <c r="G223" s="5">
-        <v>1</v>
-      </c>
-      <c r="H223" s="5">
-        <v>1</v>
-      </c>
-      <c r="I223" s="5">
-        <v>1</v>
-      </c>
-      <c r="J223" s="5">
-        <v>1</v>
-      </c>
-      <c r="K223" s="5">
-        <v>1</v>
+        <v>391</v>
+      </c>
+      <c r="C223" s="7">
+        <v>0</v>
+      </c>
+      <c r="D223" s="7">
+        <v>0</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0</v>
+      </c>
+      <c r="G223" s="7">
+        <v>0</v>
+      </c>
+      <c r="H223" s="7">
+        <v>0</v>
+      </c>
+      <c r="I223" s="7">
+        <v>0</v>
+      </c>
+      <c r="J223" s="7">
+        <v>0</v>
+      </c>
+      <c r="K223" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C224" s="5">
         <v>0</v>
@@ -10403,10 +10436,10 @@
     </row>
     <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C225" s="5">
         <v>0</v>
@@ -10438,45 +10471,45 @@
     </row>
     <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C226" s="5">
         <v>0</v>
       </c>
       <c r="D226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K226" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C227" s="5">
         <v>0</v>
@@ -10488,30 +10521,30 @@
         <v>0</v>
       </c>
       <c r="F227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C228" s="5">
         <v>0</v>
@@ -10520,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" s="5">
         <v>1</v>
@@ -10543,16 +10576,16 @@
     </row>
     <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C229" s="5">
         <v>0</v>
       </c>
       <c r="D229" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229" s="5">
         <v>1</v>
@@ -10578,115 +10611,115 @@
     </row>
     <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C230" s="7">
-        <v>0</v>
-      </c>
-      <c r="D230" s="7">
-        <v>0</v>
-      </c>
-      <c r="E230" s="7">
-        <v>0</v>
-      </c>
-      <c r="F230" s="7">
-        <v>0</v>
-      </c>
-      <c r="G230" s="7">
-        <v>0</v>
-      </c>
-      <c r="H230" s="7">
-        <v>0</v>
-      </c>
-      <c r="I230" s="7">
-        <v>0</v>
-      </c>
-      <c r="J230" s="7">
-        <v>0</v>
-      </c>
-      <c r="K230" s="7">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="C230" s="5">
+        <v>0</v>
+      </c>
+      <c r="D230" s="5">
+        <v>1</v>
+      </c>
+      <c r="E230" s="5">
+        <v>1</v>
+      </c>
+      <c r="F230" s="5">
+        <v>1</v>
+      </c>
+      <c r="G230" s="5">
+        <v>1</v>
+      </c>
+      <c r="H230" s="5">
+        <v>1</v>
+      </c>
+      <c r="I230" s="5">
+        <v>1</v>
+      </c>
+      <c r="J230" s="5">
+        <v>1</v>
+      </c>
+      <c r="K230" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C231" s="5">
-        <v>0</v>
-      </c>
-      <c r="D231" s="5">
-        <v>1</v>
-      </c>
-      <c r="E231" s="5">
-        <v>1</v>
-      </c>
-      <c r="F231" s="5">
-        <v>1</v>
-      </c>
-      <c r="G231" s="5">
-        <v>1</v>
-      </c>
-      <c r="H231" s="5">
-        <v>1</v>
-      </c>
-      <c r="I231" s="5">
-        <v>1</v>
-      </c>
-      <c r="J231" s="5">
-        <v>1</v>
-      </c>
-      <c r="K231" s="5">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C231" s="7">
+        <v>0</v>
+      </c>
+      <c r="D231" s="7">
+        <v>0</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0</v>
+      </c>
+      <c r="G231" s="7">
+        <v>0</v>
+      </c>
+      <c r="H231" s="7">
+        <v>0</v>
+      </c>
+      <c r="I231" s="7">
+        <v>0</v>
+      </c>
+      <c r="J231" s="7">
+        <v>0</v>
+      </c>
+      <c r="K231" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C232" s="5">
         <v>0</v>
       </c>
       <c r="D232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C233" s="5">
         <v>0</v>
@@ -10698,30 +10731,30 @@
         <v>0</v>
       </c>
       <c r="F233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C234" s="5">
         <v>0</v>
@@ -10733,30 +10766,30 @@
         <v>0</v>
       </c>
       <c r="F234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C235" s="5">
         <v>0</v>
@@ -10768,39 +10801,39 @@
         <v>0</v>
       </c>
       <c r="F235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C236" s="5">
         <v>0</v>
       </c>
       <c r="D236" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" s="5">
         <v>1</v>
@@ -10823,10 +10856,10 @@
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C237" s="5">
         <v>0</v>
@@ -10858,115 +10891,115 @@
     </row>
     <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C238" s="7">
-        <v>0</v>
-      </c>
-      <c r="D238" s="7">
-        <v>0</v>
-      </c>
-      <c r="E238" s="7">
-        <v>0</v>
-      </c>
-      <c r="F238" s="7">
-        <v>0</v>
-      </c>
-      <c r="G238" s="7">
-        <v>0</v>
-      </c>
-      <c r="H238" s="7">
-        <v>0</v>
-      </c>
-      <c r="I238" s="7">
-        <v>0</v>
-      </c>
-      <c r="J238" s="7">
-        <v>0</v>
-      </c>
-      <c r="K238" s="7">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="C238" s="5">
+        <v>0</v>
+      </c>
+      <c r="D238" s="5">
+        <v>1</v>
+      </c>
+      <c r="E238" s="5">
+        <v>1</v>
+      </c>
+      <c r="F238" s="5">
+        <v>1</v>
+      </c>
+      <c r="G238" s="5">
+        <v>1</v>
+      </c>
+      <c r="H238" s="5">
+        <v>1</v>
+      </c>
+      <c r="I238" s="5">
+        <v>1</v>
+      </c>
+      <c r="J238" s="5">
+        <v>1</v>
+      </c>
+      <c r="K238" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
-        <v>282</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C239" s="7">
-        <v>0</v>
-      </c>
-      <c r="D239" s="7">
-        <v>0</v>
-      </c>
-      <c r="E239" s="7">
-        <v>0</v>
-      </c>
-      <c r="F239" s="7">
-        <v>0</v>
-      </c>
-      <c r="G239" s="7">
-        <v>0</v>
-      </c>
-      <c r="H239" s="7">
-        <v>0</v>
-      </c>
-      <c r="I239" s="7">
-        <v>0</v>
-      </c>
-      <c r="J239" s="7">
-        <v>0</v>
-      </c>
-      <c r="K239" s="7">
+        <v>281</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C239" s="16">
+        <v>0</v>
+      </c>
+      <c r="D239" s="16">
+        <v>0</v>
+      </c>
+      <c r="E239" s="16">
+        <v>0</v>
+      </c>
+      <c r="F239" s="16">
+        <v>0</v>
+      </c>
+      <c r="G239" s="16">
+        <v>0</v>
+      </c>
+      <c r="H239" s="16">
+        <v>0</v>
+      </c>
+      <c r="I239" s="16">
+        <v>0</v>
+      </c>
+      <c r="J239" s="16">
+        <v>0</v>
+      </c>
+      <c r="K239" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
-        <v>283</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C240" s="7">
-        <v>0</v>
-      </c>
-      <c r="D240" s="7">
-        <v>0</v>
-      </c>
-      <c r="E240" s="7">
-        <v>0</v>
-      </c>
-      <c r="F240" s="7">
-        <v>0</v>
-      </c>
-      <c r="G240" s="7">
-        <v>0</v>
-      </c>
-      <c r="H240" s="7">
-        <v>0</v>
-      </c>
-      <c r="I240" s="7">
-        <v>0</v>
-      </c>
-      <c r="J240" s="7">
-        <v>0</v>
-      </c>
-      <c r="K240" s="7">
+        <v>282</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C240" s="16">
+        <v>0</v>
+      </c>
+      <c r="D240" s="16">
+        <v>0</v>
+      </c>
+      <c r="E240" s="16">
+        <v>0</v>
+      </c>
+      <c r="F240" s="16">
+        <v>0</v>
+      </c>
+      <c r="G240" s="16">
+        <v>0</v>
+      </c>
+      <c r="H240" s="16">
+        <v>0</v>
+      </c>
+      <c r="I240" s="16">
+        <v>0</v>
+      </c>
+      <c r="J240" s="16">
+        <v>0</v>
+      </c>
+      <c r="K240" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C241" s="7">
         <v>0</v>
@@ -10998,45 +11031,45 @@
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
-        <v>285</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C242" s="5">
-        <v>0</v>
-      </c>
-      <c r="D242" s="5">
-        <v>0</v>
-      </c>
-      <c r="E242" s="5">
-        <v>0</v>
-      </c>
-      <c r="F242" s="5">
-        <v>1</v>
-      </c>
-      <c r="G242" s="5">
-        <v>1</v>
-      </c>
-      <c r="H242" s="5">
-        <v>1</v>
-      </c>
-      <c r="I242" s="5">
-        <v>1</v>
-      </c>
-      <c r="J242" s="5">
-        <v>1</v>
-      </c>
-      <c r="K242" s="5">
-        <v>1</v>
+        <v>284</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C242" s="16">
+        <v>0</v>
+      </c>
+      <c r="D242" s="16">
+        <v>0</v>
+      </c>
+      <c r="E242" s="16">
+        <v>0</v>
+      </c>
+      <c r="F242" s="16">
+        <v>0</v>
+      </c>
+      <c r="G242" s="16">
+        <v>0</v>
+      </c>
+      <c r="H242" s="16">
+        <v>0</v>
+      </c>
+      <c r="I242" s="16">
+        <v>0</v>
+      </c>
+      <c r="J242" s="16">
+        <v>0</v>
+      </c>
+      <c r="K242" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C243" s="5">
         <v>0</v>
@@ -11068,19 +11101,19 @@
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C244" s="5">
         <v>0</v>
       </c>
       <c r="D244" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" s="5">
         <v>1</v>
@@ -11103,10 +11136,10 @@
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C245" s="5">
         <v>0</v>
@@ -11138,10 +11171,10 @@
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C246" s="5">
         <v>0</v>
@@ -11173,10 +11206,10 @@
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="5">
         <v>0</v>
@@ -11208,10 +11241,10 @@
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C248" s="5">
         <v>0</v>
@@ -11243,220 +11276,220 @@
     </row>
     <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C249" s="5">
         <v>0</v>
       </c>
       <c r="D249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="E249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="F249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="G249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="H249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="J249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="K249" s="5">
-        <v>190</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="C250" s="5">
         <v>0</v>
       </c>
       <c r="D250" s="5">
-        <v>159000</v>
+        <v>190</v>
       </c>
       <c r="E250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="F250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="G250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="H250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="I250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="J250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
       <c r="K250" s="5">
-        <v>64000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C251" s="5">
         <v>0</v>
       </c>
       <c r="D251" s="5">
-        <v>17000</v>
+        <v>159000</v>
       </c>
       <c r="E251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="F251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="G251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="H251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="I251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="J251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
       <c r="K251" s="5">
-        <v>17000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" s="5">
         <v>0</v>
       </c>
       <c r="D252" s="5">
-        <v>1500</v>
+        <v>17000</v>
       </c>
       <c r="E252" s="5">
-        <v>1500</v>
+        <v>17000</v>
       </c>
       <c r="F252" s="5">
-        <v>1200</v>
+        <v>17000</v>
       </c>
       <c r="G252" s="5">
-        <v>1050</v>
+        <v>17000</v>
       </c>
       <c r="H252" s="5">
-        <v>900</v>
+        <v>17000</v>
       </c>
       <c r="I252" s="5">
-        <v>750</v>
+        <v>17000</v>
       </c>
       <c r="J252" s="5">
-        <v>600</v>
+        <v>17000</v>
       </c>
       <c r="K252" s="5">
-        <v>375</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C253" s="5">
         <v>0</v>
       </c>
       <c r="D253" s="5">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="E253" s="5">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="F253" s="5">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="G253" s="5">
-        <v>245</v>
+        <v>1050</v>
       </c>
       <c r="H253" s="5">
-        <v>210</v>
+        <v>900</v>
       </c>
       <c r="I253" s="5">
-        <v>175</v>
+        <v>750</v>
       </c>
       <c r="J253" s="5">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K253" s="5">
-        <v>88</v>
+        <v>375</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C254" s="5">
         <v>0</v>
       </c>
       <c r="D254" s="5">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="E254" s="5">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="F254" s="5">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="G254" s="5">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="H254" s="5">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="I254" s="5">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="J254" s="5">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="K254" s="5">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C255" s="5">
         <v>0</v>
@@ -11488,45 +11521,45 @@
     </row>
     <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C256" s="5">
         <v>0</v>
       </c>
       <c r="D256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C257" s="5">
         <v>0</v>
@@ -11558,10 +11591,10 @@
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258" s="5">
         <v>0</v>
@@ -11593,10 +11626,10 @@
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C259" s="5">
         <v>0</v>
@@ -11628,10 +11661,10 @@
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C260" s="5">
         <v>0</v>
@@ -11663,10 +11696,10 @@
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C261" s="5">
         <v>0</v>
@@ -11698,220 +11731,220 @@
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C262" s="5">
         <v>0</v>
       </c>
       <c r="D262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K262" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C263" s="5">
         <v>0</v>
       </c>
       <c r="D263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="E263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="F263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="G263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="H263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="I263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="J263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
       <c r="K263" s="5">
-        <v>103000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C264" s="5">
         <v>0</v>
       </c>
       <c r="D264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="E264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="F264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="G264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="H264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="I264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="J264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
       <c r="K264" s="5">
-        <v>770</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C265" s="5">
         <v>0</v>
       </c>
       <c r="D265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="E265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="F265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="G265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="H265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="I265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="J265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K265" s="5">
-        <v>250</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C266" s="5">
         <v>0</v>
       </c>
       <c r="D266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="H266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="I266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="J266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="K266" s="5">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C267" s="5">
         <v>0</v>
       </c>
       <c r="D267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K267" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C268" s="5">
         <v>0</v>
@@ -11943,10 +11976,10 @@
     </row>
     <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C269" s="5">
         <v>0</v>
@@ -11978,10 +12011,10 @@
     </row>
     <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C270" s="5">
         <v>0</v>
@@ -12013,10 +12046,10 @@
     </row>
     <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C271" s="5">
         <v>0</v>
@@ -12048,10 +12081,10 @@
     </row>
     <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C272" s="5">
         <v>0</v>
@@ -12083,10 +12116,10 @@
     </row>
     <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="C273" s="5">
         <v>0</v>
@@ -12118,10 +12151,10 @@
     </row>
     <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C274" s="5">
         <v>0</v>
@@ -12153,10 +12186,10 @@
     </row>
     <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C275" s="5">
         <v>0</v>
@@ -12188,10 +12221,10 @@
     </row>
     <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C276" s="5">
         <v>0</v>
@@ -12223,185 +12256,185 @@
     </row>
     <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="C277" s="5">
         <v>0</v>
       </c>
       <c r="D277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="F277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="G277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="H277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="I277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="J277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="K277" s="5">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
-        <v>341</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C278" s="5">
-        <v>0</v>
-      </c>
-      <c r="D278" s="5">
-        <v>170</v>
-      </c>
-      <c r="E278" s="5">
-        <v>170</v>
-      </c>
-      <c r="F278" s="5">
-        <v>170</v>
-      </c>
-      <c r="G278" s="5">
-        <v>170</v>
-      </c>
-      <c r="H278" s="5">
-        <v>170</v>
-      </c>
-      <c r="I278" s="5">
-        <v>170</v>
-      </c>
-      <c r="J278" s="5">
-        <v>170</v>
-      </c>
-      <c r="K278" s="5">
-        <v>170</v>
+        <v>339</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C278" s="14">
+        <v>0</v>
+      </c>
+      <c r="D278" s="14">
+        <v>0</v>
+      </c>
+      <c r="E278" s="14">
+        <v>0</v>
+      </c>
+      <c r="F278" s="14">
+        <v>0</v>
+      </c>
+      <c r="G278" s="14">
+        <v>0</v>
+      </c>
+      <c r="H278" s="14">
+        <v>0</v>
+      </c>
+      <c r="I278" s="14">
+        <v>0</v>
+      </c>
+      <c r="J278" s="14">
+        <v>0</v>
+      </c>
+      <c r="K278" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
-        <v>342</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>253</v>
+        <v>340</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="C279" s="5">
         <v>0</v>
       </c>
       <c r="D279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="E279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="F279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="G279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="H279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="I279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="J279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
       <c r="K279" s="5">
-        <v>70</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C280" s="5">
         <v>0</v>
       </c>
       <c r="D280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="E280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="F280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="G280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="H280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="I280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="J280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="K280" s="5">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C281" s="5">
         <v>0</v>
       </c>
       <c r="D281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K281" s="5">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C282" s="5">
         <v>0</v>
@@ -12433,10 +12466,10 @@
     </row>
     <row r="283" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C283" s="5">
         <v>0</v>
@@ -12468,45 +12501,45 @@
     </row>
     <row r="284" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C284" s="5">
         <v>0</v>
       </c>
       <c r="D284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C285" s="5">
         <v>0</v>
@@ -12538,80 +12571,80 @@
     </row>
     <row r="286" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C286" s="5">
         <v>0</v>
       </c>
       <c r="D286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K286" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C287" s="5">
         <v>0</v>
       </c>
       <c r="D287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K287" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C288" s="5">
         <v>0</v>
@@ -12643,80 +12676,80 @@
     </row>
     <row r="289" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C289" s="5">
         <v>0</v>
       </c>
       <c r="D289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C290" s="5">
         <v>0</v>
       </c>
       <c r="D290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C291" s="5">
         <v>0</v>
@@ -12725,74 +12758,74 @@
         <v>0</v>
       </c>
       <c r="E291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K291" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C292" s="5">
         <v>0</v>
       </c>
       <c r="D292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K292" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C293" s="5">
         <v>0</v>
       </c>
       <c r="D293" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293" s="5">
         <v>1</v>
@@ -12818,10 +12851,10 @@
     </row>
     <row r="294" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C294" s="5">
         <v>0</v>
@@ -12853,10 +12886,10 @@
     </row>
     <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C295" s="5">
         <v>0</v>
@@ -12888,115 +12921,115 @@
     </row>
     <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C296" s="7">
-        <v>0</v>
-      </c>
-      <c r="D296" s="7">
-        <v>0</v>
-      </c>
-      <c r="E296" s="7">
-        <v>0</v>
-      </c>
-      <c r="F296" s="7">
-        <v>0</v>
-      </c>
-      <c r="G296" s="7">
-        <v>0</v>
-      </c>
-      <c r="H296" s="7">
-        <v>0</v>
-      </c>
-      <c r="I296" s="7">
-        <v>0</v>
-      </c>
-      <c r="J296" s="7">
-        <v>0</v>
-      </c>
-      <c r="K296" s="7">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="C296" s="5">
+        <v>0</v>
+      </c>
+      <c r="D296" s="5">
+        <v>1</v>
+      </c>
+      <c r="E296" s="5">
+        <v>1</v>
+      </c>
+      <c r="F296" s="5">
+        <v>1</v>
+      </c>
+      <c r="G296" s="5">
+        <v>1</v>
+      </c>
+      <c r="H296" s="5">
+        <v>1</v>
+      </c>
+      <c r="I296" s="5">
+        <v>1</v>
+      </c>
+      <c r="J296" s="5">
+        <v>1</v>
+      </c>
+      <c r="K296" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C297" s="5">
         <v>0</v>
       </c>
       <c r="D297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K297" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C298" s="5">
-        <v>0</v>
-      </c>
-      <c r="D298" s="5">
-        <v>0</v>
-      </c>
-      <c r="E298" s="5">
-        <v>0</v>
-      </c>
-      <c r="F298" s="5">
-        <v>0</v>
-      </c>
-      <c r="G298" s="5">
-        <v>0</v>
-      </c>
-      <c r="H298" s="5">
-        <v>0</v>
-      </c>
-      <c r="I298" s="5">
-        <v>0</v>
-      </c>
-      <c r="J298" s="5">
-        <v>0</v>
-      </c>
-      <c r="K298" s="5">
+        <v>111</v>
+      </c>
+      <c r="C298" s="7">
+        <v>0</v>
+      </c>
+      <c r="D298" s="7">
+        <v>0</v>
+      </c>
+      <c r="E298" s="7">
+        <v>0</v>
+      </c>
+      <c r="F298" s="7">
+        <v>0</v>
+      </c>
+      <c r="G298" s="7">
+        <v>0</v>
+      </c>
+      <c r="H298" s="7">
+        <v>0</v>
+      </c>
+      <c r="I298" s="7">
+        <v>0</v>
+      </c>
+      <c r="J298" s="7">
+        <v>0</v>
+      </c>
+      <c r="K298" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C299" s="5">
         <v>0</v>
@@ -13028,10 +13061,10 @@
     </row>
     <row r="300" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C300" s="5">
         <v>0</v>
@@ -13063,10 +13096,10 @@
     </row>
     <row r="301" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C301" s="5">
         <v>0</v>
@@ -13075,74 +13108,74 @@
         <v>0</v>
       </c>
       <c r="E301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K301" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C302" s="5">
         <v>0</v>
       </c>
       <c r="D302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C303" s="5">
         <v>0</v>
       </c>
       <c r="D303" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -13168,10 +13201,10 @@
     </row>
     <row r="304" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C304" s="5">
         <v>0</v>
@@ -13203,80 +13236,80 @@
     </row>
     <row r="305" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C305" s="5">
         <v>0</v>
       </c>
       <c r="D305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="C306" s="5">
         <v>0</v>
       </c>
       <c r="D306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="C307" s="5">
         <v>0</v>
@@ -13285,74 +13318,74 @@
         <v>0</v>
       </c>
       <c r="E307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="C308" s="5">
         <v>0</v>
       </c>
       <c r="D308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K308" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="C309" s="5">
         <v>0</v>
       </c>
       <c r="D309" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -13378,500 +13411,500 @@
     </row>
     <row r="310" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="C310" s="5">
         <v>0</v>
       </c>
       <c r="D310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K310" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C311" s="7">
-        <v>0</v>
-      </c>
-      <c r="D311" s="7">
-        <v>0</v>
-      </c>
-      <c r="E311" s="7">
-        <v>0</v>
-      </c>
-      <c r="F311" s="7">
-        <v>0</v>
-      </c>
-      <c r="G311" s="7">
-        <v>0</v>
-      </c>
-      <c r="H311" s="7">
-        <v>0</v>
-      </c>
-      <c r="I311" s="7">
-        <v>0</v>
-      </c>
-      <c r="J311" s="7">
-        <v>0</v>
-      </c>
-      <c r="K311" s="7">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="C311" s="5">
+        <v>0</v>
+      </c>
+      <c r="D311" s="5">
+        <v>1</v>
+      </c>
+      <c r="E311" s="5">
+        <v>1</v>
+      </c>
+      <c r="F311" s="5">
+        <v>1</v>
+      </c>
+      <c r="G311" s="5">
+        <v>1</v>
+      </c>
+      <c r="H311" s="5">
+        <v>1</v>
+      </c>
+      <c r="I311" s="5">
+        <v>1</v>
+      </c>
+      <c r="J311" s="5">
+        <v>1</v>
+      </c>
+      <c r="K311" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C312" s="7">
-        <v>0</v>
-      </c>
-      <c r="D312" s="7">
-        <v>0</v>
-      </c>
-      <c r="E312" s="7">
-        <v>0</v>
-      </c>
-      <c r="F312" s="7">
-        <v>0</v>
-      </c>
-      <c r="G312" s="7">
-        <v>0</v>
-      </c>
-      <c r="H312" s="7">
-        <v>0</v>
-      </c>
-      <c r="I312" s="7">
-        <v>0</v>
-      </c>
-      <c r="J312" s="7">
-        <v>0</v>
-      </c>
-      <c r="K312" s="7">
+        <v>35</v>
+      </c>
+      <c r="C312" s="5">
+        <v>0</v>
+      </c>
+      <c r="D312" s="5">
+        <v>0</v>
+      </c>
+      <c r="E312" s="5">
+        <v>0</v>
+      </c>
+      <c r="F312" s="5">
+        <v>0</v>
+      </c>
+      <c r="G312" s="5">
+        <v>0</v>
+      </c>
+      <c r="H312" s="5">
+        <v>0</v>
+      </c>
+      <c r="I312" s="5">
+        <v>0</v>
+      </c>
+      <c r="J312" s="5">
+        <v>0</v>
+      </c>
+      <c r="K312" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C313" s="5">
-        <v>0</v>
-      </c>
-      <c r="D313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="E313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="F313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="G313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="H313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="I313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="J313" s="5">
-        <v>11400</v>
-      </c>
-      <c r="K313" s="5">
-        <v>11400</v>
+        <v>355</v>
+      </c>
+      <c r="C313" s="7">
+        <v>0</v>
+      </c>
+      <c r="D313" s="7">
+        <v>0</v>
+      </c>
+      <c r="E313" s="7">
+        <v>0</v>
+      </c>
+      <c r="F313" s="7">
+        <v>0</v>
+      </c>
+      <c r="G313" s="7">
+        <v>0</v>
+      </c>
+      <c r="H313" s="7">
+        <v>0</v>
+      </c>
+      <c r="I313" s="7">
+        <v>0</v>
+      </c>
+      <c r="J313" s="7">
+        <v>0</v>
+      </c>
+      <c r="K313" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C314" s="5">
-        <v>0</v>
-      </c>
-      <c r="D314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="E314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="F314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="G314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="H314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="I314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="J314" s="5">
-        <v>4100</v>
-      </c>
-      <c r="K314" s="5">
-        <v>4100</v>
+        <v>354</v>
+      </c>
+      <c r="C314" s="7">
+        <v>0</v>
+      </c>
+      <c r="D314" s="7">
+        <v>0</v>
+      </c>
+      <c r="E314" s="7">
+        <v>0</v>
+      </c>
+      <c r="F314" s="7">
+        <v>0</v>
+      </c>
+      <c r="G314" s="7">
+        <v>0</v>
+      </c>
+      <c r="H314" s="7">
+        <v>0</v>
+      </c>
+      <c r="I314" s="7">
+        <v>0</v>
+      </c>
+      <c r="J314" s="7">
+        <v>0</v>
+      </c>
+      <c r="K314" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
-        <v>400</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C315" s="5">
-        <v>0</v>
-      </c>
-      <c r="D315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="E315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="F315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="G315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="H315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="I315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="J315" s="5">
-        <v>1600</v>
-      </c>
-      <c r="K315" s="5">
-        <v>1600</v>
+        <v>391</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C315" s="16">
+        <v>0</v>
+      </c>
+      <c r="D315" s="16">
+        <v>0</v>
+      </c>
+      <c r="E315" s="16">
+        <v>0</v>
+      </c>
+      <c r="F315" s="16">
+        <v>0</v>
+      </c>
+      <c r="G315" s="16">
+        <v>0</v>
+      </c>
+      <c r="H315" s="16">
+        <v>0</v>
+      </c>
+      <c r="I315" s="16">
+        <v>0</v>
+      </c>
+      <c r="J315" s="16">
+        <v>0</v>
+      </c>
+      <c r="K315" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C316" s="5">
         <v>0</v>
       </c>
       <c r="D316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="E316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="F316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="G316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="H316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="I316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="J316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
       <c r="K316" s="5">
-        <v>500</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C317" s="5">
         <v>0</v>
       </c>
       <c r="D317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="G317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="H317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="I317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="J317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="K317" s="5">
-        <v>0</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C318" s="5">
         <v>0</v>
       </c>
       <c r="D318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K318" s="5">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C319" s="5">
         <v>0</v>
       </c>
       <c r="D319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="K319" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C320" s="5">
         <v>0</v>
       </c>
       <c r="D320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K320" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C321" s="5">
         <v>0</v>
       </c>
       <c r="D321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K321" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C322" s="5">
         <v>0</v>
       </c>
       <c r="D322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C323" s="5">
         <v>0</v>
       </c>
       <c r="D323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K323" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C324" s="5">
         <v>0</v>
@@ -13903,10 +13936,10 @@
     </row>
     <row r="325" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C325" s="5">
         <v>0</v>
@@ -13938,51 +13971,51 @@
     </row>
     <row r="326" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C326" s="5">
         <v>0</v>
       </c>
       <c r="D326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K326" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C327" s="5">
         <v>0</v>
       </c>
       <c r="D327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E327" s="5">
         <v>1</v>
@@ -14008,10 +14041,10 @@
     </row>
     <row r="328" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C328" s="5">
         <v>0</v>
@@ -14020,39 +14053,39 @@
         <v>0</v>
       </c>
       <c r="E328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K328" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C329" s="5">
         <v>0</v>
       </c>
       <c r="D329" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -14078,16 +14111,16 @@
     </row>
     <row r="330" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C330" s="5">
         <v>0</v>
       </c>
       <c r="D330" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -14113,16 +14146,16 @@
     </row>
     <row r="331" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C331" s="5">
         <v>0</v>
       </c>
       <c r="D331" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -14148,16 +14181,16 @@
     </row>
     <row r="332" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C332" s="5">
         <v>0</v>
       </c>
       <c r="D332" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -14183,51 +14216,51 @@
     </row>
     <row r="333" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C333" s="5">
         <v>0</v>
       </c>
       <c r="D333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C334" s="5">
         <v>0</v>
       </c>
       <c r="D334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -14253,10 +14286,10 @@
     </row>
     <row r="335" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C335" s="5">
         <v>0</v>
@@ -14288,51 +14321,51 @@
     </row>
     <row r="336" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C336" s="5">
         <v>0</v>
       </c>
       <c r="D336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K336" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C337" s="5">
         <v>0</v>
       </c>
       <c r="D337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E337" s="5">
         <v>1</v>
@@ -14358,115 +14391,115 @@
     </row>
     <row r="338" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C338" s="5">
         <v>0</v>
       </c>
       <c r="D338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C339" s="5">
         <v>0</v>
       </c>
       <c r="D339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K339" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C340" s="5">
         <v>0</v>
       </c>
       <c r="D340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C341" s="5">
         <v>0</v>
@@ -14498,10 +14531,10 @@
     </row>
     <row r="342" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C342" s="5">
         <v>0</v>
@@ -14533,10 +14566,10 @@
     </row>
     <row r="343" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C343" s="5">
         <v>0</v>
@@ -14568,10 +14601,10 @@
     </row>
     <row r="344" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C344" s="5">
         <v>0</v>
@@ -14603,10 +14636,10 @@
     </row>
     <row r="345" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C345" s="5">
         <v>0</v>
@@ -14638,10 +14671,10 @@
     </row>
     <row r="346" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C346" s="5">
         <v>0</v>
@@ -14673,10 +14706,10 @@
     </row>
     <row r="347" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C347" s="5">
         <v>0</v>
@@ -14708,45 +14741,45 @@
     </row>
     <row r="348" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="D348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="E348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="F348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="G348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="H348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="I348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="J348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
       <c r="K348" s="5">
-        <v>17881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C349" s="5">
         <v>0</v>
@@ -14778,10 +14811,10 @@
     </row>
     <row r="350" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C350" s="5">
         <v>0</v>
@@ -14813,45 +14846,45 @@
     </row>
     <row r="351" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="D351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="E351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="F351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="G351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="H351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="I351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="J351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
       <c r="K351" s="5">
-        <v>0</v>
+        <v>17881</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C352" s="5">
         <v>0</v>
@@ -14883,10 +14916,10 @@
     </row>
     <row r="353" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C353" s="5">
         <v>0</v>
@@ -14918,10 +14951,10 @@
     </row>
     <row r="354" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C354" s="5">
         <v>0</v>
@@ -14953,10 +14986,10 @@
     </row>
     <row r="355" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C355" s="5">
         <v>0</v>
@@ -14988,10 +15021,10 @@
     </row>
     <row r="356" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C356" s="5">
         <v>0</v>
@@ -15023,10 +15056,10 @@
     </row>
     <row r="357" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C357" s="5">
         <v>0</v>
@@ -15058,465 +15091,465 @@
     </row>
     <row r="358" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C358" s="5">
         <v>0</v>
       </c>
       <c r="D358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K358" s="5">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C359" s="5">
         <v>0</v>
       </c>
       <c r="D359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="E359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="F359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="G359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="H359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="I359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="J359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="K359" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C360" s="5">
         <v>0</v>
       </c>
       <c r="D360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="E360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="F360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="G360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="H360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="I360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="J360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="K360" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C361" s="5">
         <v>0</v>
       </c>
       <c r="D361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K361" s="5">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C362" s="5">
         <v>0</v>
       </c>
       <c r="D362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="E362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="F362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="G362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="H362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="I362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="J362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="K362" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C363" s="5">
         <v>0</v>
       </c>
       <c r="D363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="E363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="F363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="G363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="H363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="I363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="J363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="K363" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C364" s="5">
         <v>0</v>
       </c>
       <c r="D364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="E364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="F364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="G364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="H364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="I364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="J364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="K364" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C365" s="5">
         <v>0</v>
       </c>
       <c r="D365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="E365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="F365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="H365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="I365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="J365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="K365" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C366" s="5">
         <v>0</v>
       </c>
       <c r="D366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="E366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="F366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="H366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="I366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="J366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
       <c r="K366" s="5">
-        <v>269167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C367" s="5">
         <v>0</v>
       </c>
       <c r="D367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="E367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="F367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="G367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="H367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="I367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="J367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
       <c r="K367" s="5">
-        <v>1103</v>
+        <v>269167</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C368" s="5">
         <v>0</v>
       </c>
       <c r="D368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="E368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="F368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="G368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="H368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="I368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="J368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="K368" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C369" s="5">
         <v>0</v>
       </c>
       <c r="D369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="E369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="F369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="G369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="H369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="I369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="J369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
       <c r="K369" s="5">
-        <v>0</v>
+        <v>269167</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C370" s="5">
         <v>0</v>
       </c>
       <c r="D370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="E370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="F370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="G370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="H370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="I370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="J370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="K370" s="5">
-        <v>0</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C371" s="5">
         <v>0</v>
@@ -15548,10 +15581,10 @@
     </row>
     <row r="372" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C372" s="5">
         <v>0</v>
@@ -15583,10 +15616,10 @@
     </row>
     <row r="373" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C373" s="5">
         <v>0</v>
@@ -15618,10 +15651,10 @@
     </row>
     <row r="374" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C374" s="5">
         <v>0</v>
@@ -15653,10 +15686,10 @@
     </row>
     <row r="375" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C375" s="5">
         <v>0</v>
@@ -15688,10 +15721,10 @@
     </row>
     <row r="376" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C376" s="5">
         <v>0</v>
@@ -15723,10 +15756,10 @@
     </row>
     <row r="377" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C377" s="5">
         <v>0</v>
@@ -15758,10 +15791,10 @@
     </row>
     <row r="378" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C378" s="5">
         <v>0</v>
@@ -15793,45 +15826,45 @@
     </row>
     <row r="379" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C379" s="5">
         <v>0</v>
       </c>
       <c r="D379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K379" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C380" s="5">
         <v>0</v>
@@ -15863,10 +15896,10 @@
     </row>
     <row r="381" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C381" s="5">
         <v>0</v>
@@ -15898,45 +15931,45 @@
     </row>
     <row r="382" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C382" s="5">
         <v>0</v>
       </c>
       <c r="D382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K382" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C383" s="5">
         <v>0</v>
@@ -15968,10 +16001,10 @@
     </row>
     <row r="384" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C384" s="5">
         <v>0</v>
@@ -16003,42 +16036,147 @@
     </row>
     <row r="385" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
+        <v>503</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C385" s="5">
+        <v>0</v>
+      </c>
+      <c r="D385" s="5">
+        <v>0</v>
+      </c>
+      <c r="E385" s="5">
+        <v>0</v>
+      </c>
+      <c r="F385" s="5">
+        <v>0</v>
+      </c>
+      <c r="G385" s="5">
+        <v>0</v>
+      </c>
+      <c r="H385" s="5">
+        <v>0</v>
+      </c>
+      <c r="I385" s="5">
+        <v>0</v>
+      </c>
+      <c r="J385" s="5">
+        <v>0</v>
+      </c>
+      <c r="K385" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="5">
+        <v>504</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C386" s="5">
+        <v>0</v>
+      </c>
+      <c r="D386" s="5">
+        <v>0</v>
+      </c>
+      <c r="E386" s="5">
+        <v>0</v>
+      </c>
+      <c r="F386" s="5">
+        <v>0</v>
+      </c>
+      <c r="G386" s="5">
+        <v>0</v>
+      </c>
+      <c r="H386" s="5">
+        <v>0</v>
+      </c>
+      <c r="I386" s="5">
+        <v>0</v>
+      </c>
+      <c r="J386" s="5">
+        <v>0</v>
+      </c>
+      <c r="K386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="5">
+        <v>505</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C387" s="5">
+        <v>0</v>
+      </c>
+      <c r="D387" s="5">
+        <v>0</v>
+      </c>
+      <c r="E387" s="5">
+        <v>0</v>
+      </c>
+      <c r="F387" s="5">
+        <v>0</v>
+      </c>
+      <c r="G387" s="5">
+        <v>0</v>
+      </c>
+      <c r="H387" s="5">
+        <v>0</v>
+      </c>
+      <c r="I387" s="5">
+        <v>0</v>
+      </c>
+      <c r="J387" s="5">
+        <v>0</v>
+      </c>
+      <c r="K387" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="5">
         <v>506</v>
       </c>
-      <c r="B385" s="6" t="s">
+      <c r="B388" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C385" s="5">
-        <v>0</v>
-      </c>
-      <c r="D385" s="5">
-        <v>0</v>
-      </c>
-      <c r="E385" s="5">
-        <v>0</v>
-      </c>
-      <c r="F385" s="5">
-        <v>0</v>
-      </c>
-      <c r="G385" s="5">
-        <v>0</v>
-      </c>
-      <c r="H385" s="5">
-        <v>0</v>
-      </c>
-      <c r="I385" s="5">
-        <v>0</v>
-      </c>
-      <c r="J385" s="5">
-        <v>0</v>
-      </c>
-      <c r="K385" s="5">
+      <c r="C388" s="5">
+        <v>0</v>
+      </c>
+      <c r="D388" s="5">
+        <v>0</v>
+      </c>
+      <c r="E388" s="5">
+        <v>0</v>
+      </c>
+      <c r="F388" s="5">
+        <v>0</v>
+      </c>
+      <c r="G388" s="5">
+        <v>0</v>
+      </c>
+      <c r="H388" s="5">
+        <v>0</v>
+      </c>
+      <c r="I388" s="5">
+        <v>0</v>
+      </c>
+      <c r="J388" s="5">
+        <v>0</v>
+      </c>
+      <c r="K388" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K385">
-    <sortCondition ref="A2:A385"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K388">
+    <sortCondition ref="A2:A388"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/development/L1Menu_Collisions2022_v1_0_1/PrescaleTable/L1Menu_Collisions2022_v1_0_1.xlsx
+++ b/development/L1Menu_Collisions2022_v1_0_1/PrescaleTable/L1Menu_Collisions2022_v1_0_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2022_v1_0_1/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A71268-C6CF-A94C-B6A9-EBE369DD3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B70C7E-9824-DA46-A827-9B593469C0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="-17200" windowWidth="29500" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-900" yWindow="-19340" windowWidth="30080" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2583,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3B8E07-BE26-384A-A4B5-1B0A96E53592}">
   <dimension ref="A1:IV388"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14671,7 +14671,7 @@
     </row>
     <row r="346" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>311</v>
@@ -14706,7 +14706,7 @@
     </row>
     <row r="347" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>312</v>
@@ -14741,7 +14741,7 @@
     </row>
     <row r="348" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>313</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="349" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>314</v>
